--- a/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint2.xlsx
+++ b/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\9. Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Document\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D1445-A6E7-4AAD-A8BD-9CC5F48B58CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7483C6-0952-4CA7-B0CD-EC45DAC296F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{3525484C-0467-4050-88DE-158F6FA02530}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{3525484C-0467-4050-88DE-158F6FA02530}"/>
   </bookViews>
   <sheets>
     <sheet name="Forget Password Mobile" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Forget password on Web" sheetId="7" r:id="rId7"/>
     <sheet name="Add New Authority on Web" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="187">
   <si>
     <t>Module Code</t>
   </si>
@@ -104,9 +106,6 @@
     <t>TC09</t>
   </si>
   <si>
-    <t>Check Forget Password</t>
-  </si>
-  <si>
     <t xml:space="preserve">Internet is connected, Forget password is loaded </t>
   </si>
   <si>
@@ -132,15 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Internet is connected, Login successful, Change Password page is loaded </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check change password </t>
-  </si>
-  <si>
-    <t>1. Enter the current password
-2. Enter the new password
-3. Leave the Re-enter new password blank
-4. Click on "Đổi mật khẩu"</t>
   </si>
   <si>
     <t>1. Enter wrong current password
@@ -408,9 +398,6 @@
     <t>TC12</t>
   </si>
   <si>
-    <t>Check login page</t>
-  </si>
-  <si>
     <t>Check forget password</t>
   </si>
   <si>
@@ -515,35 +502,6 @@
     <t xml:space="preserve">Internet is connected,Forget Password page is loaded </t>
   </si>
   <si>
-    <t>1. Enter the registered username
-2. Enter the registered email
-3. Click Reset button</t>
-  </si>
-  <si>
-    <t>1. Enter the wrong registered username
-2. Enter the registered email
-3. Click Reset button</t>
-  </si>
-  <si>
-    <t>1. Enter the registered username
-2. Enter the wrong registered email
-3. Click Reset button</t>
-  </si>
-  <si>
-    <t>1. Enter the wrong registered username
-2. Enter the wrong registered email
-3. Click Reset button</t>
-  </si>
-  <si>
-    <t>Check forget password page</t>
-  </si>
-  <si>
-    <t>Check Change Password Page</t>
-  </si>
-  <si>
-    <t>Check Edit Profile Page</t>
-  </si>
-  <si>
     <t>Add New Authority on Web</t>
   </si>
   <si>
@@ -551,19 +509,6 @@
   </si>
   <si>
     <t xml:space="preserve">Internet is connected,Login successful,Add new Authority page is loaded </t>
-  </si>
-  <si>
-    <t>Check create new authority</t>
-  </si>
-  <si>
-    <t>1. Select Province/City
-2. Unselect District
-3. Enter name of Organization
-4. Enter correct username
-5. Enter correct password
-6. Enter correct phone number
-7. Enter correct email address
-8. Click on "Create" button</t>
   </si>
   <si>
     <t>1. Select Province/City
@@ -730,6 +675,177 @@
   </si>
   <si>
     <t>Create a new user</t>
+  </si>
+  <si>
+    <t>Check Forget Password success</t>
+  </si>
+  <si>
+    <t>Declare wrong username</t>
+  </si>
+  <si>
+    <t>Declare invalid username</t>
+  </si>
+  <si>
+    <t>Declare empty username</t>
+  </si>
+  <si>
+    <t>Declare invalid email address</t>
+  </si>
+  <si>
+    <t>Declare empty email address</t>
+  </si>
+  <si>
+    <t>Declare wrong email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check change password success </t>
+  </si>
+  <si>
+    <t>Declare wrong current password</t>
+  </si>
+  <si>
+    <t>Declare empty current password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declare invalid new password </t>
+  </si>
+  <si>
+    <t>Declare empty new password</t>
+  </si>
+  <si>
+    <t>Declare empty re-enter new password</t>
+  </si>
+  <si>
+    <t>Declare wrong re-enter new password</t>
+  </si>
+  <si>
+    <t>Check register success</t>
+  </si>
+  <si>
+    <t>Declare empty password</t>
+  </si>
+  <si>
+    <t>Declare empty re-enter password</t>
+  </si>
+  <si>
+    <t>Declare empty re-enter password &amp; invalid email address</t>
+  </si>
+  <si>
+    <t>Declare any code</t>
+  </si>
+  <si>
+    <t>Declare empty code</t>
+  </si>
+  <si>
+    <t>Declare empty username &amp; password</t>
+  </si>
+  <si>
+    <t>Declare wrong password</t>
+  </si>
+  <si>
+    <t>Declare unregistered username</t>
+  </si>
+  <si>
+    <t>Declare incorrect username</t>
+  </si>
+  <si>
+    <t>Declare username &amp; password with a space</t>
+  </si>
+  <si>
+    <t>Declare  password in an incorrect format</t>
+  </si>
+  <si>
+    <t>Check login page success</t>
+  </si>
+  <si>
+    <t>Declare the deleted username</t>
+  </si>
+  <si>
+    <t>Check Edit Profile Page success</t>
+  </si>
+  <si>
+    <t>Declare empty first name</t>
+  </si>
+  <si>
+    <t>Declare empty last name</t>
+  </si>
+  <si>
+    <t>Declare empty phone number</t>
+  </si>
+  <si>
+    <t>Declare phone number with a space</t>
+  </si>
+  <si>
+    <t>Declare invalid phone number</t>
+  </si>
+  <si>
+    <t>Check Change Password Page success</t>
+  </si>
+  <si>
+    <t>Declare empty confirmed password</t>
+  </si>
+  <si>
+    <t>Declare wrong confirmed password</t>
+  </si>
+  <si>
+    <t>Cancel password change</t>
+  </si>
+  <si>
+    <t>Check forget password page success</t>
+  </si>
+  <si>
+    <t>Declare wrong registered username</t>
+  </si>
+  <si>
+    <t>1. Enter the registered username
+2. Enter the registered email address
+3. Click Reset button</t>
+  </si>
+  <si>
+    <t>1. Enter the wrong registered username
+2. Enter the registered email address
+3. Click Reset button</t>
+  </si>
+  <si>
+    <t>1. Enter the registered username
+2. Enter the wrong registered email address
+3. Click Reset button</t>
+  </si>
+  <si>
+    <t>1. Enter the wrong registered username
+2. Enter the wrong registered email address
+3. Click Reset button</t>
+  </si>
+  <si>
+    <t>Declare wrong registered email address</t>
+  </si>
+  <si>
+    <t>Declare wrong registered username and email address</t>
+  </si>
+  <si>
+    <t>Check create new authority success</t>
+  </si>
+  <si>
+    <t>Declare empty Province/City</t>
+  </si>
+  <si>
+    <t>Declare empty Province/City and District</t>
+  </si>
+  <si>
+    <t>1. Unselect Province/City
+2. Unselect District
+3. Enter name of Organization
+4. Enter correct username
+5. Enter correct password
+6. Enter correct phone number
+7. Enter correct email address
+8. Click on "Create" button</t>
+  </si>
+  <si>
+    <t>Declare name of Organization with special characters</t>
+  </si>
+  <si>
+    <t>Declare username with a space</t>
   </si>
 </sst>
 </file>
@@ -1206,52 +1322,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E1BE13-E930-481A-B0D3-7D0C79CB08B2}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="72.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="21"/>
-    <col min="9" max="9" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="21"/>
+    <col min="8" max="8" width="8.88671875" style="21"/>
+    <col min="9" max="9" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>9</v>
       </c>
@@ -1276,12 +1392,12 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>8</v>
@@ -1304,21 +1420,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -1327,21 +1443,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -1350,21 +1466,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -1373,21 +1489,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -1396,21 +1512,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -1419,21 +1535,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -1442,21 +1558,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -1465,21 +1581,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>3</v>
@@ -1488,21 +1604,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>3</v>
@@ -1511,7 +1627,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="22"/>
     </row>
   </sheetData>
@@ -1527,53 +1643,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048E5443-BBCE-4973-A198-50FE1DBE44E0}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="21" customWidth="1"/>
-    <col min="4" max="5" width="68.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="21" customWidth="1"/>
+    <col min="4" max="5" width="68.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="21" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="21"/>
-    <col min="9" max="9" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="15.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="21"/>
+    <col min="9" max="9" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1584,26 +1700,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>8</v>
@@ -1626,21 +1742,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -1649,21 +1765,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -1672,21 +1788,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -1695,21 +1811,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -1718,21 +1834,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -1741,21 +1857,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -1764,21 +1880,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="84" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -1787,34 +1903,11 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1831,52 +1924,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179CEDD4-E714-4F20-B797-ACE427A753F8}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="72.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39" style="21" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="21" customWidth="1"/>
     <col min="7" max="7" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="21"/>
-    <col min="9" max="9" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="21"/>
-    <col min="11" max="11" width="34.85546875" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="21"/>
+    <col min="8" max="8" width="8.88671875" style="21"/>
+    <col min="9" max="9" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="21"/>
+    <col min="11" max="11" width="34.88671875" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>11</v>
       </c>
@@ -1901,12 +1994,12 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>8</v>
@@ -1929,21 +2022,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -1952,21 +2045,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -1975,21 +2068,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -1998,21 +2091,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -2021,21 +2114,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -2044,21 +2137,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -2067,21 +2160,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="181.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -2090,24 +2183,24 @@
         <v>44834</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>3</v>
@@ -2116,67 +2209,67 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>3</v>
@@ -2200,51 +2293,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB48216E-12E6-4778-96ED-8D3A2A35C700}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="47.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="14.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>12</v>
       </c>
@@ -2269,12 +2362,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2375,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -2297,21 +2390,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -2320,21 +2413,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -2343,21 +2436,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -2366,21 +2459,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -2389,21 +2482,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -2412,21 +2505,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -2435,21 +2528,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -2458,21 +2551,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>3</v>
@@ -2481,90 +2574,90 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>3</v>
@@ -2590,50 +2683,50 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="72.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="4" customWidth="1"/>
+    <col min="4" max="5" width="72.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.5546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2644,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -2658,12 +2751,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2671,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -2686,21 +2779,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -2709,21 +2802,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -2732,21 +2825,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -2755,21 +2848,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -2778,21 +2871,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -2801,21 +2894,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -2824,19 +2917,19 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="16"/>
     </row>
   </sheetData>
@@ -2854,51 +2947,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A380690-44E2-4944-930F-4D0FC4E18329}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="18" customWidth="1"/>
-    <col min="4" max="5" width="57.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" style="18" customWidth="1"/>
+    <col min="4" max="5" width="57.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="18"/>
-    <col min="9" max="9" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="18"/>
+    <col min="8" max="8" width="8.88671875" style="18"/>
+    <col min="9" max="9" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2909,7 +3002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>7</v>
       </c>
@@ -2923,12 +3016,12 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2936,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>8</v>
@@ -2951,21 +3044,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -2974,21 +3067,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -2997,21 +3090,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -3020,21 +3113,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -3043,21 +3136,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -3066,21 +3159,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -3089,21 +3182,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>109</v>
+      <c r="B14" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -3112,13 +3205,13 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
     </row>
   </sheetData>
@@ -3136,49 +3229,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73B9235-0BA2-448F-88A5-3053D63DCBF2}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="5" width="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3189,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -3203,12 +3296,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3216,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -3231,21 +3324,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -3254,21 +3347,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -3277,21 +3370,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -3300,21 +3393,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>108</v>
+      <c r="B11" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -3323,21 +3416,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -3346,23 +3439,23 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="G17" s="3"/>
     </row>
@@ -3381,51 +3474,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CAD9E4-CA59-454F-A739-B68F94A65610}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="57.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="57.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="9" max="9" width="26.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="26.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>11</v>
       </c>
@@ -3450,12 +3543,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3463,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -3478,21 +3571,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
@@ -3501,21 +3594,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>3</v>
@@ -3524,21 +3617,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>3</v>
@@ -3547,21 +3640,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -3570,21 +3663,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
@@ -3593,21 +3686,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
@@ -3616,21 +3709,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>3</v>
@@ -3639,21 +3732,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>3</v>
@@ -3662,21 +3755,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>3</v>
@@ -3685,21 +3778,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>3</v>
@@ -3708,21 +3801,21 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>3</v>
